--- a/data/output/high_noisy/results/psnr.xlsx
+++ b/data/output/high_noisy/results/psnr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\high_noisy\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F418526-74A9-4682-AD78-C63C1C6CBBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16414E8-0F73-4078-BDBF-7E94385FC9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +425,7 @@
     <col min="1" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,18 +436,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>32.39918162</v>
+        <v>32.276154140000003</v>
       </c>
       <c r="B2">
-        <v>32.969133190000001</v>
+        <v>33.411136429999999</v>
       </c>
       <c r="C2">
-        <v>34.210771469999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34.896376199999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30.803184479999999</v>
       </c>
@@ -458,7 +458,7 @@
         <v>33.133481089999997</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>29.8994784</v>
       </c>
@@ -469,7 +469,7 @@
         <v>31.888871460000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30.40303518</v>
       </c>
@@ -480,7 +480,7 @@
         <v>31.605835429999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>29.917662369999999</v>
       </c>
@@ -491,7 +491,7 @@
         <v>31.847021900000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>30.171216510000001</v>
       </c>
@@ -502,7 +502,7 @@
         <v>32.485099990000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>28.84998422</v>
       </c>
@@ -513,7 +513,7 @@
         <v>30.315934550000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>27.87151647</v>
       </c>
@@ -524,7 +524,7 @@
         <v>29.149796689999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>29.73231414</v>
       </c>
@@ -535,7 +535,7 @@
         <v>31.726082049999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>28.729805649999999</v>
       </c>
@@ -545,8 +545,9 @@
       <c r="C11">
         <v>29.34085357</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>31.61282542</v>
       </c>
@@ -557,7 +558,7 @@
         <v>34.001326509999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>28.896309479999999</v>
       </c>
@@ -568,7 +569,7 @@
         <v>29.59907033</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>28.733420410000001</v>
       </c>
@@ -579,7 +580,7 @@
         <v>30.308134630000001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>29.779251980000002</v>
       </c>
@@ -590,7 +591,7 @@
         <v>32.274643589999997</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>25.961001960000001</v>
       </c>
